--- a/Financials/Yearly/KNBWY_YR_FIN.xlsx
+++ b/Financials/Yearly/KNBWY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3B7FBC-04C8-4B03-A6E8-36EE856D71AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KNBWY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>KNBWY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16531300</v>
+        <v>17451900</v>
       </c>
       <c r="E8" s="3">
-        <v>16444400</v>
+        <v>16848100</v>
       </c>
       <c r="F8" s="3">
-        <v>19486700</v>
+        <v>16759600</v>
       </c>
       <c r="G8" s="3">
-        <v>19476700</v>
+        <v>19860200</v>
       </c>
       <c r="H8" s="3">
-        <v>19998200</v>
+        <v>19850000</v>
       </c>
       <c r="I8" s="3">
-        <v>19391400</v>
+        <v>20381400</v>
       </c>
       <c r="J8" s="3">
+        <v>19763000</v>
+      </c>
+      <c r="K8" s="3">
         <v>18376600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9324100</v>
+        <v>9918300</v>
       </c>
       <c r="E9" s="3">
-        <v>19729800</v>
+        <v>9502800</v>
       </c>
       <c r="F9" s="3">
-        <v>10899900</v>
+        <v>20108000</v>
       </c>
       <c r="G9" s="3">
-        <v>11108000</v>
+        <v>11108800</v>
       </c>
       <c r="H9" s="3">
-        <v>11420900</v>
+        <v>11320900</v>
       </c>
       <c r="I9" s="3">
-        <v>11304600</v>
+        <v>11639800</v>
       </c>
       <c r="J9" s="3">
+        <v>11521200</v>
+      </c>
+      <c r="K9" s="3">
         <v>10811200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7207200</v>
+        <v>7533700</v>
       </c>
       <c r="E10" s="3">
-        <v>-3285400</v>
+        <v>7345300</v>
       </c>
       <c r="F10" s="3">
-        <v>8586800</v>
+        <v>-3348400</v>
       </c>
       <c r="G10" s="3">
-        <v>8368700</v>
+        <v>8751400</v>
       </c>
       <c r="H10" s="3">
-        <v>8577200</v>
+        <v>8529100</v>
       </c>
       <c r="I10" s="3">
-        <v>8086800</v>
+        <v>8741600</v>
       </c>
       <c r="J10" s="3">
+        <v>8241800</v>
+      </c>
+      <c r="K10" s="3">
         <v>7565400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>521100</v>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>1106400</v>
+        <v>531100</v>
       </c>
       <c r="F12" s="3">
-        <v>543300</v>
+        <v>1127600</v>
       </c>
       <c r="G12" s="3">
-        <v>505900</v>
+        <v>553700</v>
       </c>
       <c r="H12" s="3">
-        <v>479400</v>
+        <v>515600</v>
       </c>
       <c r="I12" s="3">
-        <v>487900</v>
+        <v>488600</v>
       </c>
       <c r="J12" s="3">
+        <v>497300</v>
+      </c>
+      <c r="K12" s="3">
         <v>516600</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>130700</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
-        <v>12100</v>
+        <v>133200</v>
       </c>
       <c r="F14" s="3">
-        <v>1207800</v>
+        <v>12400</v>
       </c>
       <c r="G14" s="3">
-        <v>190400</v>
+        <v>1230900</v>
       </c>
       <c r="H14" s="3">
-        <v>386200</v>
+        <v>194000</v>
       </c>
       <c r="I14" s="3">
-        <v>196800</v>
+        <v>393600</v>
       </c>
       <c r="J14" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K14" s="3">
         <v>731000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>243500</v>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="3">
-        <v>546400</v>
+        <v>248100</v>
       </c>
       <c r="F15" s="3">
-        <v>363200</v>
+        <v>556800</v>
       </c>
       <c r="G15" s="3">
-        <v>367200</v>
+        <v>370200</v>
       </c>
       <c r="H15" s="3">
-        <v>340200</v>
+        <v>374300</v>
       </c>
       <c r="I15" s="3">
-        <v>306900</v>
+        <v>346700</v>
       </c>
       <c r="J15" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K15" s="3">
         <v>282900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14659100</v>
+        <v>15659100</v>
       </c>
       <c r="E17" s="3">
-        <v>14700700</v>
+        <v>14940100</v>
       </c>
       <c r="F17" s="3">
-        <v>19587900</v>
+        <v>14982400</v>
       </c>
       <c r="G17" s="3">
-        <v>18651000</v>
+        <v>19963400</v>
       </c>
       <c r="H17" s="3">
-        <v>19117600</v>
+        <v>19008500</v>
       </c>
       <c r="I17" s="3">
-        <v>18230800</v>
+        <v>19484000</v>
       </c>
       <c r="J17" s="3">
+        <v>18580200</v>
+      </c>
+      <c r="K17" s="3">
         <v>17840500</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1872200</v>
+        <v>1792800</v>
       </c>
       <c r="E18" s="3">
-        <v>1743800</v>
+        <v>1908000</v>
       </c>
       <c r="F18" s="3">
-        <v>-101200</v>
+        <v>1777200</v>
       </c>
       <c r="G18" s="3">
-        <v>825700</v>
+        <v>-103200</v>
       </c>
       <c r="H18" s="3">
-        <v>880600</v>
+        <v>841500</v>
       </c>
       <c r="I18" s="3">
-        <v>1160600</v>
+        <v>897400</v>
       </c>
       <c r="J18" s="3">
+        <v>1182800</v>
+      </c>
+      <c r="K18" s="3">
         <v>536200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>258900</v>
+        <v>438700</v>
       </c>
       <c r="E20" s="3">
-        <v>283200</v>
+        <v>263800</v>
       </c>
       <c r="F20" s="3">
-        <v>433800</v>
+        <v>288600</v>
       </c>
       <c r="G20" s="3">
-        <v>81300</v>
+        <v>442100</v>
       </c>
       <c r="H20" s="3">
-        <v>703200</v>
+        <v>82900</v>
       </c>
       <c r="I20" s="3">
-        <v>226900</v>
+        <v>716700</v>
       </c>
       <c r="J20" s="3">
+        <v>231200</v>
+      </c>
+      <c r="K20" s="3">
         <v>402500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2745100</v>
+        <v>2846500</v>
       </c>
       <c r="E21" s="3">
-        <v>2860100</v>
+        <v>2798400</v>
       </c>
       <c r="F21" s="3">
-        <v>1414000</v>
+        <v>2915900</v>
       </c>
       <c r="G21" s="3">
-        <v>2225100</v>
+        <v>1442300</v>
       </c>
       <c r="H21" s="3">
-        <v>2905700</v>
+        <v>2269200</v>
       </c>
       <c r="I21" s="3">
-        <v>2685700</v>
+        <v>2962900</v>
       </c>
       <c r="J21" s="3">
+        <v>2738600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2205000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>57400</v>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="3">
-        <v>180700</v>
+        <v>58500</v>
       </c>
       <c r="F22" s="3">
-        <v>178000</v>
+        <v>184100</v>
       </c>
       <c r="G22" s="3">
-        <v>216200</v>
+        <v>181400</v>
       </c>
       <c r="H22" s="3">
-        <v>189400</v>
+        <v>220400</v>
       </c>
       <c r="I22" s="3">
-        <v>202500</v>
+        <v>193000</v>
       </c>
       <c r="J22" s="3">
+        <v>206400</v>
+      </c>
+      <c r="K22" s="3">
         <v>185500</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2073600</v>
+        <v>2231500</v>
       </c>
       <c r="E23" s="3">
-        <v>1846300</v>
+        <v>2113300</v>
       </c>
       <c r="F23" s="3">
-        <v>154500</v>
+        <v>1881700</v>
       </c>
       <c r="G23" s="3">
-        <v>690800</v>
+        <v>157500</v>
       </c>
       <c r="H23" s="3">
-        <v>1394400</v>
+        <v>704000</v>
       </c>
       <c r="I23" s="3">
-        <v>1185000</v>
+        <v>1421100</v>
       </c>
       <c r="J23" s="3">
+        <v>1207700</v>
+      </c>
+      <c r="K23" s="3">
         <v>753200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>460800</v>
+        <v>466800</v>
       </c>
       <c r="E24" s="3">
-        <v>444000</v>
+        <v>469600</v>
       </c>
       <c r="F24" s="3">
-        <v>407200</v>
+        <v>452500</v>
       </c>
       <c r="G24" s="3">
-        <v>292900</v>
+        <v>415100</v>
       </c>
       <c r="H24" s="3">
-        <v>472400</v>
+        <v>298500</v>
       </c>
       <c r="I24" s="3">
-        <v>533300</v>
+        <v>481500</v>
       </c>
       <c r="J24" s="3">
+        <v>543600</v>
+      </c>
+      <c r="K24" s="3">
         <v>547000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1612800</v>
+        <v>1764700</v>
       </c>
       <c r="E26" s="3">
-        <v>1402300</v>
+        <v>1643700</v>
       </c>
       <c r="F26" s="3">
-        <v>-252700</v>
+        <v>1429200</v>
       </c>
       <c r="G26" s="3">
-        <v>397900</v>
+        <v>-257600</v>
       </c>
       <c r="H26" s="3">
-        <v>922000</v>
+        <v>405500</v>
       </c>
       <c r="I26" s="3">
-        <v>651600</v>
+        <v>939700</v>
       </c>
       <c r="J26" s="3">
+        <v>664100</v>
+      </c>
+      <c r="K26" s="3">
         <v>206200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1393300</v>
+        <v>1484400</v>
       </c>
       <c r="E27" s="3">
-        <v>1110700</v>
+        <v>1420000</v>
       </c>
       <c r="F27" s="3">
-        <v>-419800</v>
+        <v>1132000</v>
       </c>
       <c r="G27" s="3">
-        <v>287300</v>
+        <v>-427900</v>
       </c>
       <c r="H27" s="3">
-        <v>759800</v>
+        <v>292800</v>
       </c>
       <c r="I27" s="3">
-        <v>498500</v>
+        <v>774300</v>
       </c>
       <c r="J27" s="3">
+        <v>508000</v>
+      </c>
+      <c r="K27" s="3">
         <v>65700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,20 +1318,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>753800</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
-        <v>72600</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>768200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>74000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-258900</v>
+        <v>-438700</v>
       </c>
       <c r="E32" s="3">
-        <v>-283200</v>
+        <v>-263800</v>
       </c>
       <c r="F32" s="3">
-        <v>-433800</v>
+        <v>-288600</v>
       </c>
       <c r="G32" s="3">
-        <v>-81300</v>
+        <v>-442100</v>
       </c>
       <c r="H32" s="3">
-        <v>-703200</v>
+        <v>-82900</v>
       </c>
       <c r="I32" s="3">
-        <v>-226900</v>
+        <v>-716700</v>
       </c>
       <c r="J32" s="3">
+        <v>-231200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-402500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2147000</v>
+        <v>1484400</v>
       </c>
       <c r="E33" s="3">
-        <v>1183300</v>
+        <v>2188200</v>
       </c>
       <c r="F33" s="3">
-        <v>-419800</v>
+        <v>1206000</v>
       </c>
       <c r="G33" s="3">
-        <v>287300</v>
+        <v>-427900</v>
       </c>
       <c r="H33" s="3">
-        <v>759800</v>
+        <v>292800</v>
       </c>
       <c r="I33" s="3">
-        <v>498500</v>
+        <v>774300</v>
       </c>
       <c r="J33" s="3">
+        <v>508000</v>
+      </c>
+      <c r="K33" s="3">
         <v>65700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2147000</v>
+        <v>1484400</v>
       </c>
       <c r="E35" s="3">
-        <v>1183300</v>
+        <v>2188200</v>
       </c>
       <c r="F35" s="3">
-        <v>-419800</v>
+        <v>1206000</v>
       </c>
       <c r="G35" s="3">
-        <v>287300</v>
+        <v>-427900</v>
       </c>
       <c r="H35" s="3">
-        <v>759800</v>
+        <v>292800</v>
       </c>
       <c r="I35" s="3">
-        <v>498500</v>
+        <v>774300</v>
       </c>
       <c r="J35" s="3">
+        <v>508000</v>
+      </c>
+      <c r="K35" s="3">
         <v>65700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,46 +1594,50 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1427300</v>
+        <v>1564800</v>
       </c>
       <c r="E41" s="3">
-        <v>1113100</v>
+        <v>1454700</v>
       </c>
       <c r="F41" s="3">
-        <v>589500</v>
+        <v>1134400</v>
       </c>
       <c r="G41" s="3">
-        <v>438600</v>
+        <v>600800</v>
       </c>
       <c r="H41" s="3">
-        <v>1009000</v>
+        <v>447000</v>
       </c>
       <c r="I41" s="3">
-        <v>744300</v>
+        <v>1028400</v>
       </c>
       <c r="J41" s="3">
+        <v>758600</v>
+      </c>
+      <c r="K41" s="3">
         <v>676100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29800</v>
+        <v>60700</v>
       </c>
       <c r="E42" s="3">
-        <v>238100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
+        <v>30400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>242700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>24</v>
@@ -1527,198 +1651,222 @@
       <c r="J42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3506000</v>
+        <v>3660600</v>
       </c>
       <c r="E43" s="3">
-        <v>7293700</v>
+        <v>3573200</v>
       </c>
       <c r="F43" s="3">
-        <v>3487800</v>
+        <v>7433400</v>
       </c>
       <c r="G43" s="3">
-        <v>3593100</v>
+        <v>3554600</v>
       </c>
       <c r="H43" s="3">
-        <v>3479300</v>
+        <v>3662000</v>
       </c>
       <c r="I43" s="3">
-        <v>3627800</v>
+        <v>3546000</v>
       </c>
       <c r="J43" s="3">
+        <v>3697400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3549800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1728200</v>
+        <v>1851700</v>
       </c>
       <c r="E44" s="3">
-        <v>3661500</v>
+        <v>1761300</v>
       </c>
       <c r="F44" s="3">
-        <v>2019900</v>
+        <v>3731700</v>
       </c>
       <c r="G44" s="3">
-        <v>2184400</v>
+        <v>2058600</v>
       </c>
       <c r="H44" s="3">
-        <v>1996100</v>
+        <v>2226200</v>
       </c>
       <c r="I44" s="3">
-        <v>1831700</v>
+        <v>2034400</v>
       </c>
       <c r="J44" s="3">
+        <v>1866800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1711800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>981400</v>
+        <v>381200</v>
       </c>
       <c r="E45" s="3">
-        <v>1146400</v>
+        <v>1000300</v>
       </c>
       <c r="F45" s="3">
-        <v>838500</v>
+        <v>1168300</v>
       </c>
       <c r="G45" s="3">
-        <v>896100</v>
+        <v>854500</v>
       </c>
       <c r="H45" s="3">
-        <v>742700</v>
+        <v>913300</v>
       </c>
       <c r="I45" s="3">
-        <v>799000</v>
+        <v>756900</v>
       </c>
       <c r="J45" s="3">
+        <v>814300</v>
+      </c>
+      <c r="K45" s="3">
         <v>786400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7672800</v>
+        <v>7519100</v>
       </c>
       <c r="E46" s="3">
-        <v>6816700</v>
+        <v>7819800</v>
       </c>
       <c r="F46" s="3">
-        <v>6935700</v>
+        <v>6947300</v>
       </c>
       <c r="G46" s="3">
-        <v>7112200</v>
+        <v>7068700</v>
       </c>
       <c r="H46" s="3">
-        <v>7227200</v>
+        <v>7248500</v>
       </c>
       <c r="I46" s="3">
-        <v>7002800</v>
+        <v>7365700</v>
       </c>
       <c r="J46" s="3">
+        <v>7137000</v>
+      </c>
+      <c r="K46" s="3">
         <v>6724000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3719300</v>
+        <v>3782200</v>
       </c>
       <c r="E47" s="3">
-        <v>7588700</v>
+        <v>3790600</v>
       </c>
       <c r="F47" s="3">
-        <v>3582300</v>
+        <v>7734100</v>
       </c>
       <c r="G47" s="3">
-        <v>3534900</v>
+        <v>3651000</v>
       </c>
       <c r="H47" s="3">
-        <v>3292200</v>
+        <v>3602600</v>
       </c>
       <c r="I47" s="3">
-        <v>4167400</v>
+        <v>3355300</v>
       </c>
       <c r="J47" s="3">
+        <v>4247300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3645000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4933700</v>
+        <v>4764400</v>
       </c>
       <c r="E48" s="3">
-        <v>11915900</v>
+        <v>5028300</v>
       </c>
       <c r="F48" s="3">
-        <v>6313300</v>
+        <v>12144300</v>
       </c>
       <c r="G48" s="3">
-        <v>7081800</v>
+        <v>6434300</v>
       </c>
       <c r="H48" s="3">
-        <v>6780000</v>
+        <v>7217500</v>
       </c>
       <c r="I48" s="3">
-        <v>6771700</v>
+        <v>6910000</v>
       </c>
       <c r="J48" s="3">
+        <v>6901500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6775200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3956000</v>
+        <v>3834000</v>
       </c>
       <c r="E49" s="3">
-        <v>7653600</v>
+        <v>4031800</v>
       </c>
       <c r="F49" s="3">
-        <v>4067300</v>
+        <v>7800300</v>
       </c>
       <c r="G49" s="3">
-        <v>7533800</v>
+        <v>4145300</v>
       </c>
       <c r="H49" s="3">
-        <v>7423600</v>
+        <v>7678200</v>
       </c>
       <c r="I49" s="3">
-        <v>7290700</v>
+        <v>7565900</v>
       </c>
       <c r="J49" s="3">
+        <v>7430400</v>
+      </c>
+      <c r="K49" s="3">
         <v>7240200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>998100</v>
+        <v>925100</v>
       </c>
       <c r="E52" s="3">
-        <v>1707700</v>
+        <v>1017200</v>
       </c>
       <c r="F52" s="3">
-        <v>777600</v>
+        <v>1740400</v>
       </c>
       <c r="G52" s="3">
-        <v>1044600</v>
+        <v>792500</v>
       </c>
       <c r="H52" s="3">
-        <v>968600</v>
+        <v>1064600</v>
       </c>
       <c r="I52" s="3">
-        <v>943300</v>
+        <v>987100</v>
       </c>
       <c r="J52" s="3">
+        <v>961400</v>
+      </c>
+      <c r="K52" s="3">
         <v>932700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21279900</v>
+        <v>20824800</v>
       </c>
       <c r="E54" s="3">
-        <v>21490500</v>
+        <v>21687700</v>
       </c>
       <c r="F54" s="3">
-        <v>21676300</v>
+        <v>21902300</v>
       </c>
       <c r="G54" s="3">
-        <v>26307200</v>
+        <v>22091700</v>
       </c>
       <c r="H54" s="3">
-        <v>25691600</v>
+        <v>26811400</v>
       </c>
       <c r="I54" s="3">
-        <v>26175900</v>
+        <v>26184000</v>
       </c>
       <c r="J54" s="3">
+        <v>26677600</v>
+      </c>
+      <c r="K54" s="3">
         <v>25317100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1008800</v>
+        <v>2053300</v>
       </c>
       <c r="E57" s="3">
-        <v>2377300</v>
+        <v>1028100</v>
       </c>
       <c r="F57" s="3">
-        <v>1260000</v>
+        <v>2422800</v>
       </c>
       <c r="G57" s="3">
-        <v>1420100</v>
+        <v>1284200</v>
       </c>
       <c r="H57" s="3">
-        <v>1382500</v>
+        <v>1447400</v>
       </c>
       <c r="I57" s="3">
-        <v>1341000</v>
+        <v>1409000</v>
       </c>
       <c r="J57" s="3">
+        <v>1366700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1303500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1098600</v>
+        <v>877400</v>
       </c>
       <c r="E58" s="3">
-        <v>2586600</v>
+        <v>1119600</v>
       </c>
       <c r="F58" s="3">
-        <v>1420300</v>
+        <v>2636200</v>
       </c>
       <c r="G58" s="3">
-        <v>2101300</v>
+        <v>1447600</v>
       </c>
       <c r="H58" s="3">
-        <v>1329200</v>
+        <v>2141600</v>
       </c>
       <c r="I58" s="3">
-        <v>1730000</v>
+        <v>1354700</v>
       </c>
       <c r="J58" s="3">
+        <v>1763200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2045600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3333900</v>
+        <v>2402400</v>
       </c>
       <c r="E59" s="3">
-        <v>6885100</v>
+        <v>3397800</v>
       </c>
       <c r="F59" s="3">
-        <v>3226300</v>
+        <v>7017100</v>
       </c>
       <c r="G59" s="3">
-        <v>3438500</v>
+        <v>3288100</v>
       </c>
       <c r="H59" s="3">
-        <v>3141600</v>
+        <v>3504400</v>
       </c>
       <c r="I59" s="3">
-        <v>3298900</v>
+        <v>3201800</v>
       </c>
       <c r="J59" s="3">
+        <v>3362100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2996700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5441300</v>
+        <v>5333100</v>
       </c>
       <c r="E60" s="3">
-        <v>6080100</v>
+        <v>5545500</v>
       </c>
       <c r="F60" s="3">
-        <v>5906600</v>
+        <v>6196600</v>
       </c>
       <c r="G60" s="3">
-        <v>6960000</v>
+        <v>6019900</v>
       </c>
       <c r="H60" s="3">
-        <v>5853300</v>
+        <v>7093400</v>
       </c>
       <c r="I60" s="3">
-        <v>6369900</v>
+        <v>5965500</v>
       </c>
       <c r="J60" s="3">
+        <v>6492000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6345700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3216500</v>
+        <v>2874200</v>
       </c>
       <c r="E61" s="3">
-        <v>4537300</v>
+        <v>3278100</v>
       </c>
       <c r="F61" s="3">
-        <v>5866100</v>
+        <v>4624300</v>
       </c>
       <c r="G61" s="3">
-        <v>5642200</v>
+        <v>5978600</v>
       </c>
       <c r="H61" s="3">
-        <v>6289300</v>
+        <v>5750300</v>
       </c>
       <c r="I61" s="3">
-        <v>7414600</v>
+        <v>6409900</v>
       </c>
       <c r="J61" s="3">
+        <v>7556700</v>
+      </c>
+      <c r="K61" s="3">
         <v>8051400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1719100</v>
+        <v>1761200</v>
       </c>
       <c r="E62" s="3">
-        <v>3983900</v>
+        <v>1752000</v>
       </c>
       <c r="F62" s="3">
-        <v>1582700</v>
+        <v>4060200</v>
       </c>
       <c r="G62" s="3">
-        <v>1857300</v>
+        <v>1613000</v>
       </c>
       <c r="H62" s="3">
-        <v>2011500</v>
+        <v>1892900</v>
       </c>
       <c r="I62" s="3">
-        <v>2156300</v>
+        <v>2050000</v>
       </c>
       <c r="J62" s="3">
+        <v>2197600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1625200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12783300</v>
+        <v>12543400</v>
       </c>
       <c r="E66" s="3">
-        <v>15227100</v>
+        <v>13028300</v>
       </c>
       <c r="F66" s="3">
-        <v>15784200</v>
+        <v>15519000</v>
       </c>
       <c r="G66" s="3">
-        <v>16531000</v>
+        <v>16086700</v>
       </c>
       <c r="H66" s="3">
-        <v>16146000</v>
+        <v>16847900</v>
       </c>
       <c r="I66" s="3">
-        <v>17757000</v>
+        <v>16455400</v>
       </c>
       <c r="J66" s="3">
+        <v>18097300</v>
+      </c>
+      <c r="K66" s="3">
         <v>17749500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7198200</v>
+        <v>8529000</v>
       </c>
       <c r="E72" s="3">
-        <v>10885500</v>
+        <v>7336100</v>
       </c>
       <c r="F72" s="3">
-        <v>4844300</v>
+        <v>11094100</v>
       </c>
       <c r="G72" s="3">
-        <v>7528100</v>
+        <v>4937100</v>
       </c>
       <c r="H72" s="3">
-        <v>7546700</v>
+        <v>7672400</v>
       </c>
       <c r="I72" s="3">
-        <v>7068900</v>
+        <v>7691400</v>
       </c>
       <c r="J72" s="3">
+        <v>7204300</v>
+      </c>
+      <c r="K72" s="3">
         <v>7114700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8496500</v>
+        <v>8281400</v>
       </c>
       <c r="E76" s="3">
-        <v>6263300</v>
+        <v>8659400</v>
       </c>
       <c r="F76" s="3">
-        <v>5892100</v>
+        <v>6383400</v>
       </c>
       <c r="G76" s="3">
-        <v>9776200</v>
+        <v>6005000</v>
       </c>
       <c r="H76" s="3">
-        <v>9545600</v>
+        <v>9963600</v>
       </c>
       <c r="I76" s="3">
-        <v>8418900</v>
+        <v>9728600</v>
       </c>
       <c r="J76" s="3">
+        <v>8580300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7567600</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2147000</v>
+        <v>1484400</v>
       </c>
       <c r="E81" s="3">
-        <v>1183300</v>
+        <v>2188200</v>
       </c>
       <c r="F81" s="3">
-        <v>-419800</v>
+        <v>1206000</v>
       </c>
       <c r="G81" s="3">
-        <v>287300</v>
+        <v>-427900</v>
       </c>
       <c r="H81" s="3">
-        <v>759800</v>
+        <v>292800</v>
       </c>
       <c r="I81" s="3">
-        <v>498500</v>
+        <v>774300</v>
       </c>
       <c r="J81" s="3">
+        <v>508000</v>
+      </c>
+      <c r="K81" s="3">
         <v>65700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>614100</v>
+        <v>614200</v>
       </c>
       <c r="E83" s="3">
-        <v>833200</v>
+        <v>625900</v>
       </c>
       <c r="F83" s="3">
-        <v>1081500</v>
+        <v>849100</v>
       </c>
       <c r="G83" s="3">
-        <v>1318100</v>
+        <v>1102200</v>
       </c>
       <c r="H83" s="3">
-        <v>1321900</v>
+        <v>1343300</v>
       </c>
       <c r="I83" s="3">
-        <v>1298200</v>
+        <v>1347300</v>
       </c>
       <c r="J83" s="3">
+        <v>1323100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1266300</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1966600</v>
+        <v>1790400</v>
       </c>
       <c r="E89" s="3">
-        <v>2060200</v>
+        <v>2004300</v>
       </c>
       <c r="F89" s="3">
-        <v>1515100</v>
+        <v>2099700</v>
       </c>
       <c r="G89" s="3">
-        <v>1377000</v>
+        <v>1544200</v>
       </c>
       <c r="H89" s="3">
-        <v>1822900</v>
+        <v>1403400</v>
       </c>
       <c r="I89" s="3">
-        <v>1883200</v>
+        <v>1857900</v>
       </c>
       <c r="J89" s="3">
+        <v>1919300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1745500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-787900</v>
+        <v>-794500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1724600</v>
+        <v>-803000</v>
       </c>
       <c r="F91" s="3">
-        <v>-684000</v>
+        <v>-1757600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1068700</v>
+        <v>-697100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1041300</v>
+        <v>-1089100</v>
       </c>
       <c r="I91" s="3">
-        <v>-877900</v>
+        <v>-1061200</v>
       </c>
       <c r="J91" s="3">
+        <v>-894800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-708100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>560700</v>
+        <v>428400</v>
       </c>
       <c r="E94" s="3">
-        <v>-733200</v>
+        <v>571500</v>
       </c>
       <c r="F94" s="3">
-        <v>-626700</v>
+        <v>-747200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1236500</v>
+        <v>-638800</v>
       </c>
       <c r="H94" s="3">
-        <v>758600</v>
+        <v>-1260100</v>
       </c>
       <c r="I94" s="3">
-        <v>-429100</v>
+        <v>773200</v>
       </c>
       <c r="J94" s="3">
+        <v>-437300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3207900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-327800</v>
+        <v>-405200</v>
       </c>
       <c r="E96" s="3">
-        <v>-615100</v>
+        <v>-334100</v>
       </c>
       <c r="F96" s="3">
-        <v>-307600</v>
+        <v>-626900</v>
       </c>
       <c r="G96" s="3">
-        <v>-302300</v>
+        <v>-313500</v>
       </c>
       <c r="H96" s="3">
-        <v>-283100</v>
+        <v>-308100</v>
       </c>
       <c r="I96" s="3">
-        <v>-230300</v>
+        <v>-288600</v>
       </c>
       <c r="J96" s="3">
+        <v>-234700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-221800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1615800</v>
+        <v>-2049400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1395000</v>
+        <v>-1646800</v>
       </c>
       <c r="F100" s="3">
-        <v>-693800</v>
+        <v>-1421700</v>
       </c>
       <c r="G100" s="3">
-        <v>-715800</v>
+        <v>-707100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2415800</v>
+        <v>-729500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1419300</v>
+        <v>-2462100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1446500</v>
+      </c>
+      <c r="K100" s="3">
         <v>1713800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64500</v>
+        <v>-68900</v>
       </c>
       <c r="E101" s="3">
-        <v>-49500</v>
+        <v>-65700</v>
       </c>
       <c r="F101" s="3">
-        <v>-20600</v>
+        <v>-50400</v>
       </c>
       <c r="G101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>77600</v>
-      </c>
       <c r="I101" s="3">
-        <v>29000</v>
+        <v>79000</v>
       </c>
       <c r="J101" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-25100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>847000</v>
+        <v>100500</v>
       </c>
       <c r="E102" s="3">
-        <v>-117400</v>
+        <v>863200</v>
       </c>
       <c r="F102" s="3">
-        <v>173900</v>
+        <v>-119700</v>
       </c>
       <c r="G102" s="3">
-        <v>-574300</v>
+        <v>177300</v>
       </c>
       <c r="H102" s="3">
-        <v>243300</v>
+        <v>-585300</v>
       </c>
       <c r="I102" s="3">
-        <v>63800</v>
+        <v>248000</v>
       </c>
       <c r="J102" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K102" s="3">
         <v>226300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/KNBWY_YR_FIN.xlsx
+++ b/Financials/Yearly/KNBWY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3B7FBC-04C8-4B03-A6E8-36EE856D71AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KNBWY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>KNBWY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17451900</v>
+        <v>17548400</v>
       </c>
       <c r="E8" s="3">
-        <v>16848100</v>
+        <v>16941300</v>
       </c>
       <c r="F8" s="3">
-        <v>16759600</v>
+        <v>16852300</v>
       </c>
       <c r="G8" s="3">
-        <v>19860200</v>
+        <v>19970000</v>
       </c>
       <c r="H8" s="3">
-        <v>19850000</v>
+        <v>19959800</v>
       </c>
       <c r="I8" s="3">
-        <v>20381400</v>
+        <v>20494200</v>
       </c>
       <c r="J8" s="3">
-        <v>19763000</v>
+        <v>19872300</v>
       </c>
       <c r="K8" s="3">
         <v>18376600</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9918300</v>
+        <v>9973100</v>
       </c>
       <c r="E9" s="3">
-        <v>9502800</v>
+        <v>9555100</v>
       </c>
       <c r="F9" s="3">
-        <v>20108000</v>
+        <v>20219200</v>
       </c>
       <c r="G9" s="3">
-        <v>11108800</v>
+        <v>11170300</v>
       </c>
       <c r="H9" s="3">
-        <v>11320900</v>
+        <v>11383500</v>
       </c>
       <c r="I9" s="3">
-        <v>11639800</v>
+        <v>11704200</v>
       </c>
       <c r="J9" s="3">
-        <v>11521200</v>
+        <v>11585000</v>
       </c>
       <c r="K9" s="3">
         <v>10811200</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7533700</v>
+        <v>7575300</v>
       </c>
       <c r="E10" s="3">
-        <v>7345300</v>
+        <v>7386200</v>
       </c>
       <c r="F10" s="3">
-        <v>-3348400</v>
+        <v>-3366900</v>
       </c>
       <c r="G10" s="3">
-        <v>8751400</v>
+        <v>8799800</v>
       </c>
       <c r="H10" s="3">
-        <v>8529100</v>
+        <v>8576200</v>
       </c>
       <c r="I10" s="3">
-        <v>8741600</v>
+        <v>8790000</v>
       </c>
       <c r="J10" s="3">
-        <v>8241800</v>
+        <v>8287400</v>
       </c>
       <c r="K10" s="3">
         <v>7565400</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
+      <c r="D12" s="3">
+        <v>527700</v>
       </c>
       <c r="E12" s="3">
-        <v>531100</v>
+        <v>534000</v>
       </c>
       <c r="F12" s="3">
-        <v>1127600</v>
+        <v>1133900</v>
       </c>
       <c r="G12" s="3">
-        <v>553700</v>
+        <v>556800</v>
       </c>
       <c r="H12" s="3">
-        <v>515600</v>
+        <v>518500</v>
       </c>
       <c r="I12" s="3">
-        <v>488600</v>
+        <v>491300</v>
       </c>
       <c r="J12" s="3">
-        <v>497300</v>
+        <v>500000</v>
       </c>
       <c r="K12" s="3">
         <v>516600</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>94600</v>
       </c>
       <c r="E14" s="3">
-        <v>133200</v>
+        <v>133900</v>
       </c>
       <c r="F14" s="3">
         <v>12400</v>
       </c>
       <c r="G14" s="3">
-        <v>1230900</v>
+        <v>1237700</v>
       </c>
       <c r="H14" s="3">
-        <v>194000</v>
+        <v>195100</v>
       </c>
       <c r="I14" s="3">
-        <v>393600</v>
+        <v>395800</v>
       </c>
       <c r="J14" s="3">
-        <v>200500</v>
+        <v>201600</v>
       </c>
       <c r="K14" s="3">
         <v>731000</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
+      <c r="D15" s="3">
+        <v>256400</v>
       </c>
       <c r="E15" s="3">
-        <v>248100</v>
+        <v>247100</v>
       </c>
       <c r="F15" s="3">
-        <v>556800</v>
+        <v>559900</v>
       </c>
       <c r="G15" s="3">
-        <v>370200</v>
+        <v>372300</v>
       </c>
       <c r="H15" s="3">
-        <v>374300</v>
+        <v>376300</v>
       </c>
       <c r="I15" s="3">
-        <v>346700</v>
+        <v>348600</v>
       </c>
       <c r="J15" s="3">
-        <v>312800</v>
+        <v>314500</v>
       </c>
       <c r="K15" s="3">
         <v>282900</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15659100</v>
+        <v>15745700</v>
       </c>
       <c r="E17" s="3">
-        <v>14940100</v>
+        <v>15023300</v>
       </c>
       <c r="F17" s="3">
-        <v>14982400</v>
+        <v>15065300</v>
       </c>
       <c r="G17" s="3">
-        <v>19963400</v>
+        <v>20073800</v>
       </c>
       <c r="H17" s="3">
-        <v>19008500</v>
+        <v>19113600</v>
       </c>
       <c r="I17" s="3">
-        <v>19484000</v>
+        <v>19591800</v>
       </c>
       <c r="J17" s="3">
-        <v>18580200</v>
+        <v>18683000</v>
       </c>
       <c r="K17" s="3">
         <v>17840500</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1792800</v>
+        <v>1802700</v>
       </c>
       <c r="E18" s="3">
-        <v>1908000</v>
+        <v>1918000</v>
       </c>
       <c r="F18" s="3">
-        <v>1777200</v>
+        <v>1787000</v>
       </c>
       <c r="G18" s="3">
-        <v>-103200</v>
+        <v>-103700</v>
       </c>
       <c r="H18" s="3">
-        <v>841500</v>
+        <v>846200</v>
       </c>
       <c r="I18" s="3">
-        <v>897400</v>
+        <v>902400</v>
       </c>
       <c r="J18" s="3">
-        <v>1182800</v>
+        <v>1189300</v>
       </c>
       <c r="K18" s="3">
         <v>536200</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>438700</v>
+        <v>492900</v>
       </c>
       <c r="E20" s="3">
-        <v>263800</v>
+        <v>265300</v>
       </c>
       <c r="F20" s="3">
-        <v>288600</v>
+        <v>290200</v>
       </c>
       <c r="G20" s="3">
-        <v>442100</v>
+        <v>444500</v>
       </c>
       <c r="H20" s="3">
-        <v>82900</v>
+        <v>83300</v>
       </c>
       <c r="I20" s="3">
-        <v>716700</v>
+        <v>720700</v>
       </c>
       <c r="J20" s="3">
-        <v>231200</v>
+        <v>232500</v>
       </c>
       <c r="K20" s="3">
         <v>402500</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2846500</v>
+        <v>2914600</v>
       </c>
       <c r="E21" s="3">
-        <v>2798400</v>
+        <v>2811300</v>
       </c>
       <c r="F21" s="3">
-        <v>2915900</v>
+        <v>2933000</v>
       </c>
       <c r="G21" s="3">
-        <v>1442300</v>
+        <v>1451500</v>
       </c>
       <c r="H21" s="3">
-        <v>2269200</v>
+        <v>2283300</v>
       </c>
       <c r="I21" s="3">
-        <v>2962900</v>
+        <v>2980800</v>
       </c>
       <c r="J21" s="3">
-        <v>2738600</v>
+        <v>2755200</v>
       </c>
       <c r="K21" s="3">
         <v>2205000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
+      <c r="D22" s="3">
+        <v>51800</v>
       </c>
       <c r="E22" s="3">
-        <v>58500</v>
+        <v>58800</v>
       </c>
       <c r="F22" s="3">
-        <v>184100</v>
+        <v>185200</v>
       </c>
       <c r="G22" s="3">
-        <v>181400</v>
+        <v>182400</v>
       </c>
       <c r="H22" s="3">
-        <v>220400</v>
+        <v>221600</v>
       </c>
       <c r="I22" s="3">
-        <v>193000</v>
+        <v>194100</v>
       </c>
       <c r="J22" s="3">
-        <v>206400</v>
+        <v>207500</v>
       </c>
       <c r="K22" s="3">
         <v>185500</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2231500</v>
+        <v>2243900</v>
       </c>
       <c r="E23" s="3">
-        <v>2113300</v>
+        <v>2124400</v>
       </c>
       <c r="F23" s="3">
-        <v>1881700</v>
+        <v>1892100</v>
       </c>
       <c r="G23" s="3">
-        <v>157500</v>
+        <v>158400</v>
       </c>
       <c r="H23" s="3">
-        <v>704000</v>
+        <v>707900</v>
       </c>
       <c r="I23" s="3">
-        <v>1421100</v>
+        <v>1429000</v>
       </c>
       <c r="J23" s="3">
-        <v>1207700</v>
+        <v>1214400</v>
       </c>
       <c r="K23" s="3">
         <v>753200</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>466800</v>
+        <v>469400</v>
       </c>
       <c r="E24" s="3">
-        <v>469600</v>
+        <v>472200</v>
       </c>
       <c r="F24" s="3">
-        <v>452500</v>
+        <v>455000</v>
       </c>
       <c r="G24" s="3">
-        <v>415100</v>
+        <v>417300</v>
       </c>
       <c r="H24" s="3">
-        <v>298500</v>
+        <v>300100</v>
       </c>
       <c r="I24" s="3">
-        <v>481500</v>
+        <v>484100</v>
       </c>
       <c r="J24" s="3">
-        <v>543600</v>
+        <v>546600</v>
       </c>
       <c r="K24" s="3">
         <v>547000</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1764700</v>
+        <v>1774500</v>
       </c>
       <c r="E26" s="3">
-        <v>1643700</v>
+        <v>1652200</v>
       </c>
       <c r="F26" s="3">
-        <v>1429200</v>
+        <v>1437100</v>
       </c>
       <c r="G26" s="3">
-        <v>-257600</v>
+        <v>-259000</v>
       </c>
       <c r="H26" s="3">
-        <v>405500</v>
+        <v>407800</v>
       </c>
       <c r="I26" s="3">
-        <v>939700</v>
+        <v>944900</v>
       </c>
       <c r="J26" s="3">
-        <v>664100</v>
+        <v>667800</v>
       </c>
       <c r="K26" s="3">
         <v>206200</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1484400</v>
+        <v>1492600</v>
       </c>
       <c r="E27" s="3">
-        <v>1420000</v>
+        <v>1427200</v>
       </c>
       <c r="F27" s="3">
-        <v>1132000</v>
+        <v>1138200</v>
       </c>
       <c r="G27" s="3">
-        <v>-427900</v>
+        <v>-430200</v>
       </c>
       <c r="H27" s="3">
-        <v>292800</v>
+        <v>294400</v>
       </c>
       <c r="I27" s="3">
-        <v>774300</v>
+        <v>778600</v>
       </c>
       <c r="J27" s="3">
-        <v>508000</v>
+        <v>510800</v>
       </c>
       <c r="K27" s="3">
         <v>65700</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,10 +1296,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="3">
-        <v>768200</v>
+        <v>772500</v>
       </c>
       <c r="F29" s="3">
-        <v>74000</v>
+        <v>74400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-438700</v>
+        <v>-492900</v>
       </c>
       <c r="E32" s="3">
-        <v>-263800</v>
+        <v>-265300</v>
       </c>
       <c r="F32" s="3">
-        <v>-288600</v>
+        <v>-290200</v>
       </c>
       <c r="G32" s="3">
-        <v>-442100</v>
+        <v>-444500</v>
       </c>
       <c r="H32" s="3">
-        <v>-82900</v>
+        <v>-83300</v>
       </c>
       <c r="I32" s="3">
-        <v>-716700</v>
+        <v>-720700</v>
       </c>
       <c r="J32" s="3">
-        <v>-231200</v>
+        <v>-232500</v>
       </c>
       <c r="K32" s="3">
         <v>-402500</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1484400</v>
+        <v>1492600</v>
       </c>
       <c r="E33" s="3">
-        <v>2188200</v>
+        <v>2199700</v>
       </c>
       <c r="F33" s="3">
-        <v>1206000</v>
+        <v>1212700</v>
       </c>
       <c r="G33" s="3">
-        <v>-427900</v>
+        <v>-430200</v>
       </c>
       <c r="H33" s="3">
-        <v>292800</v>
+        <v>294400</v>
       </c>
       <c r="I33" s="3">
-        <v>774300</v>
+        <v>778600</v>
       </c>
       <c r="J33" s="3">
-        <v>508000</v>
+        <v>510800</v>
       </c>
       <c r="K33" s="3">
         <v>65700</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1484400</v>
+        <v>1492600</v>
       </c>
       <c r="E35" s="3">
-        <v>2188200</v>
+        <v>2199700</v>
       </c>
       <c r="F35" s="3">
-        <v>1206000</v>
+        <v>1212700</v>
       </c>
       <c r="G35" s="3">
-        <v>-427900</v>
+        <v>-430200</v>
       </c>
       <c r="H35" s="3">
-        <v>292800</v>
+        <v>294400</v>
       </c>
       <c r="I35" s="3">
-        <v>774300</v>
+        <v>778600</v>
       </c>
       <c r="J35" s="3">
-        <v>508000</v>
+        <v>510800</v>
       </c>
       <c r="K35" s="3">
         <v>65700</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,48 +1561,48 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1564800</v>
+        <v>1573500</v>
       </c>
       <c r="E41" s="3">
-        <v>1454700</v>
+        <v>1462700</v>
       </c>
       <c r="F41" s="3">
-        <v>1134400</v>
+        <v>1140700</v>
       </c>
       <c r="G41" s="3">
-        <v>600800</v>
+        <v>604200</v>
       </c>
       <c r="H41" s="3">
-        <v>447000</v>
+        <v>449500</v>
       </c>
       <c r="I41" s="3">
-        <v>1028400</v>
+        <v>1034100</v>
       </c>
       <c r="J41" s="3">
-        <v>758600</v>
+        <v>762800</v>
       </c>
       <c r="K41" s="3">
         <v>676100</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60700</v>
+        <v>61000</v>
       </c>
       <c r="E42" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="F42" s="3">
-        <v>242700</v>
+        <v>244000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>24</v>
@@ -1656,217 +1621,217 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3660600</v>
+        <v>3680900</v>
       </c>
       <c r="E43" s="3">
-        <v>3573200</v>
+        <v>3656900</v>
       </c>
       <c r="F43" s="3">
-        <v>7433400</v>
+        <v>7474600</v>
       </c>
       <c r="G43" s="3">
-        <v>3554600</v>
+        <v>3574300</v>
       </c>
       <c r="H43" s="3">
-        <v>3662000</v>
+        <v>3682300</v>
       </c>
       <c r="I43" s="3">
-        <v>3546000</v>
+        <v>3565600</v>
       </c>
       <c r="J43" s="3">
-        <v>3697400</v>
+        <v>3717800</v>
       </c>
       <c r="K43" s="3">
         <v>3549800</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1851700</v>
+        <v>1862000</v>
       </c>
       <c r="E44" s="3">
-        <v>1761300</v>
+        <v>1773800</v>
       </c>
       <c r="F44" s="3">
-        <v>3731700</v>
+        <v>3752300</v>
       </c>
       <c r="G44" s="3">
-        <v>2058600</v>
+        <v>2070000</v>
       </c>
       <c r="H44" s="3">
-        <v>2226200</v>
+        <v>2238500</v>
       </c>
       <c r="I44" s="3">
-        <v>2034400</v>
+        <v>2045700</v>
       </c>
       <c r="J44" s="3">
-        <v>1866800</v>
+        <v>1877100</v>
       </c>
       <c r="K44" s="3">
         <v>1711800</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>381200</v>
+        <v>383300</v>
       </c>
       <c r="E45" s="3">
-        <v>1000300</v>
+        <v>1004600</v>
       </c>
       <c r="F45" s="3">
-        <v>1168300</v>
+        <v>1174800</v>
       </c>
       <c r="G45" s="3">
-        <v>854500</v>
+        <v>859300</v>
       </c>
       <c r="H45" s="3">
-        <v>913300</v>
+        <v>918300</v>
       </c>
       <c r="I45" s="3">
-        <v>756900</v>
+        <v>761100</v>
       </c>
       <c r="J45" s="3">
-        <v>814300</v>
+        <v>818800</v>
       </c>
       <c r="K45" s="3">
         <v>786400</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7519100</v>
+        <v>7560700</v>
       </c>
       <c r="E46" s="3">
-        <v>7819800</v>
+        <v>7928500</v>
       </c>
       <c r="F46" s="3">
-        <v>6947300</v>
+        <v>6985800</v>
       </c>
       <c r="G46" s="3">
-        <v>7068700</v>
+        <v>7107800</v>
       </c>
       <c r="H46" s="3">
-        <v>7248500</v>
+        <v>7288600</v>
       </c>
       <c r="I46" s="3">
-        <v>7365700</v>
+        <v>7406400</v>
       </c>
       <c r="J46" s="3">
-        <v>7137000</v>
+        <v>7176500</v>
       </c>
       <c r="K46" s="3">
         <v>6724000</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3782200</v>
+        <v>3803100</v>
       </c>
       <c r="E47" s="3">
-        <v>3790600</v>
+        <v>3811700</v>
       </c>
       <c r="F47" s="3">
-        <v>7734100</v>
+        <v>7776900</v>
       </c>
       <c r="G47" s="3">
-        <v>3651000</v>
+        <v>3671200</v>
       </c>
       <c r="H47" s="3">
-        <v>3602600</v>
+        <v>3622600</v>
       </c>
       <c r="I47" s="3">
-        <v>3355300</v>
+        <v>3373800</v>
       </c>
       <c r="J47" s="3">
-        <v>4247300</v>
+        <v>4270700</v>
       </c>
       <c r="K47" s="3">
         <v>3645000</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4764400</v>
+        <v>4790800</v>
       </c>
       <c r="E48" s="3">
-        <v>5028300</v>
+        <v>5010300</v>
       </c>
       <c r="F48" s="3">
-        <v>12144300</v>
+        <v>12211500</v>
       </c>
       <c r="G48" s="3">
-        <v>6434300</v>
+        <v>6469900</v>
       </c>
       <c r="H48" s="3">
-        <v>7217500</v>
+        <v>7257400</v>
       </c>
       <c r="I48" s="3">
-        <v>6910000</v>
+        <v>6948200</v>
       </c>
       <c r="J48" s="3">
-        <v>6901500</v>
+        <v>6939600</v>
       </c>
       <c r="K48" s="3">
         <v>6775200</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3834000</v>
+        <v>3855200</v>
       </c>
       <c r="E49" s="3">
-        <v>4031800</v>
+        <v>4029700</v>
       </c>
       <c r="F49" s="3">
-        <v>7800300</v>
+        <v>7843500</v>
       </c>
       <c r="G49" s="3">
-        <v>4145300</v>
+        <v>4168200</v>
       </c>
       <c r="H49" s="3">
-        <v>7678200</v>
+        <v>7720600</v>
       </c>
       <c r="I49" s="3">
-        <v>7565900</v>
+        <v>7607700</v>
       </c>
       <c r="J49" s="3">
-        <v>7430400</v>
+        <v>7471500</v>
       </c>
       <c r="K49" s="3">
         <v>7240200</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>925100</v>
+        <v>930200</v>
       </c>
       <c r="E52" s="3">
-        <v>1017200</v>
+        <v>1022900</v>
       </c>
       <c r="F52" s="3">
-        <v>1740400</v>
+        <v>1750000</v>
       </c>
       <c r="G52" s="3">
-        <v>792500</v>
+        <v>796900</v>
       </c>
       <c r="H52" s="3">
-        <v>1064600</v>
+        <v>1070500</v>
       </c>
       <c r="I52" s="3">
-        <v>987100</v>
+        <v>992600</v>
       </c>
       <c r="J52" s="3">
-        <v>961400</v>
+        <v>966700</v>
       </c>
       <c r="K52" s="3">
         <v>932700</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20824800</v>
+        <v>20939900</v>
       </c>
       <c r="E54" s="3">
-        <v>21687700</v>
+        <v>21803000</v>
       </c>
       <c r="F54" s="3">
-        <v>21902300</v>
+        <v>22023500</v>
       </c>
       <c r="G54" s="3">
-        <v>22091700</v>
+        <v>22213900</v>
       </c>
       <c r="H54" s="3">
-        <v>26811400</v>
+        <v>26959700</v>
       </c>
       <c r="I54" s="3">
-        <v>26184000</v>
+        <v>26328800</v>
       </c>
       <c r="J54" s="3">
-        <v>26677600</v>
+        <v>26825100</v>
       </c>
       <c r="K54" s="3">
         <v>25317100</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2053300</v>
+        <v>1051300</v>
       </c>
       <c r="E57" s="3">
-        <v>1028100</v>
+        <v>1028200</v>
       </c>
       <c r="F57" s="3">
-        <v>2422800</v>
+        <v>2436200</v>
       </c>
       <c r="G57" s="3">
-        <v>1284200</v>
+        <v>1291300</v>
       </c>
       <c r="H57" s="3">
-        <v>1447400</v>
+        <v>1455400</v>
       </c>
       <c r="I57" s="3">
-        <v>1409000</v>
+        <v>1416800</v>
       </c>
       <c r="J57" s="3">
-        <v>1366700</v>
+        <v>1374300</v>
       </c>
       <c r="K57" s="3">
         <v>1303500</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>877400</v>
+        <v>882200</v>
       </c>
       <c r="E58" s="3">
-        <v>1119600</v>
+        <v>1125800</v>
       </c>
       <c r="F58" s="3">
-        <v>2636200</v>
+        <v>2650700</v>
       </c>
       <c r="G58" s="3">
-        <v>1447600</v>
+        <v>1455600</v>
       </c>
       <c r="H58" s="3">
-        <v>2141600</v>
+        <v>2153500</v>
       </c>
       <c r="I58" s="3">
-        <v>1354700</v>
+        <v>1362100</v>
       </c>
       <c r="J58" s="3">
-        <v>1763200</v>
+        <v>1772900</v>
       </c>
       <c r="K58" s="3">
         <v>2045600</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2402400</v>
+        <v>3429100</v>
       </c>
       <c r="E59" s="3">
-        <v>3397800</v>
+        <v>3417800</v>
       </c>
       <c r="F59" s="3">
-        <v>7017100</v>
+        <v>7055900</v>
       </c>
       <c r="G59" s="3">
-        <v>3288100</v>
+        <v>3306300</v>
       </c>
       <c r="H59" s="3">
-        <v>3504400</v>
+        <v>3523800</v>
       </c>
       <c r="I59" s="3">
-        <v>3201800</v>
+        <v>3219500</v>
       </c>
       <c r="J59" s="3">
-        <v>3362100</v>
+        <v>3380700</v>
       </c>
       <c r="K59" s="3">
         <v>2996700</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5333100</v>
+        <v>5362600</v>
       </c>
       <c r="E60" s="3">
-        <v>5545500</v>
+        <v>5571800</v>
       </c>
       <c r="F60" s="3">
-        <v>6196600</v>
+        <v>6230900</v>
       </c>
       <c r="G60" s="3">
-        <v>6019900</v>
+        <v>6053100</v>
       </c>
       <c r="H60" s="3">
-        <v>7093400</v>
+        <v>7132700</v>
       </c>
       <c r="I60" s="3">
-        <v>5965500</v>
+        <v>5998500</v>
       </c>
       <c r="J60" s="3">
-        <v>6492000</v>
+        <v>6527900</v>
       </c>
       <c r="K60" s="3">
         <v>6345700</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2874200</v>
+        <v>2890000</v>
       </c>
       <c r="E61" s="3">
-        <v>3278100</v>
+        <v>3296200</v>
       </c>
       <c r="F61" s="3">
-        <v>4624300</v>
+        <v>4649900</v>
       </c>
       <c r="G61" s="3">
-        <v>5978600</v>
+        <v>6011600</v>
       </c>
       <c r="H61" s="3">
-        <v>5750300</v>
+        <v>5782100</v>
       </c>
       <c r="I61" s="3">
-        <v>6409900</v>
+        <v>6445300</v>
       </c>
       <c r="J61" s="3">
-        <v>7556700</v>
+        <v>7598500</v>
       </c>
       <c r="K61" s="3">
         <v>8051400</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1761200</v>
+        <v>1770900</v>
       </c>
       <c r="E62" s="3">
-        <v>1752000</v>
+        <v>1762100</v>
       </c>
       <c r="F62" s="3">
-        <v>4060200</v>
+        <v>4082700</v>
       </c>
       <c r="G62" s="3">
-        <v>1613000</v>
+        <v>1621900</v>
       </c>
       <c r="H62" s="3">
-        <v>1892900</v>
+        <v>1903400</v>
       </c>
       <c r="I62" s="3">
-        <v>2050000</v>
+        <v>2061400</v>
       </c>
       <c r="J62" s="3">
-        <v>2197600</v>
+        <v>2209800</v>
       </c>
       <c r="K62" s="3">
         <v>1625200</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12543400</v>
+        <v>12612800</v>
       </c>
       <c r="E66" s="3">
-        <v>13028300</v>
+        <v>13096400</v>
       </c>
       <c r="F66" s="3">
-        <v>15519000</v>
+        <v>15604800</v>
       </c>
       <c r="G66" s="3">
-        <v>16086700</v>
+        <v>16175700</v>
       </c>
       <c r="H66" s="3">
-        <v>16847900</v>
+        <v>16941000</v>
       </c>
       <c r="I66" s="3">
-        <v>16455400</v>
+        <v>16546400</v>
       </c>
       <c r="J66" s="3">
-        <v>18097300</v>
+        <v>18197400</v>
       </c>
       <c r="K66" s="3">
         <v>17749500</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8529000</v>
+        <v>8576100</v>
       </c>
       <c r="E72" s="3">
-        <v>7336100</v>
+        <v>7376100</v>
       </c>
       <c r="F72" s="3">
-        <v>11094100</v>
+        <v>11155500</v>
       </c>
       <c r="G72" s="3">
-        <v>4937100</v>
+        <v>4964400</v>
       </c>
       <c r="H72" s="3">
-        <v>7672400</v>
+        <v>7714800</v>
       </c>
       <c r="I72" s="3">
-        <v>7691400</v>
+        <v>7733900</v>
       </c>
       <c r="J72" s="3">
-        <v>7204300</v>
+        <v>7244200</v>
       </c>
       <c r="K72" s="3">
         <v>7114700</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8281400</v>
+        <v>8327200</v>
       </c>
       <c r="E76" s="3">
-        <v>8659400</v>
+        <v>8706700</v>
       </c>
       <c r="F76" s="3">
-        <v>6383400</v>
+        <v>6418700</v>
       </c>
       <c r="G76" s="3">
-        <v>6005000</v>
+        <v>6038200</v>
       </c>
       <c r="H76" s="3">
-        <v>9963600</v>
+        <v>10018700</v>
       </c>
       <c r="I76" s="3">
-        <v>9728600</v>
+        <v>9782400</v>
       </c>
       <c r="J76" s="3">
-        <v>8580300</v>
+        <v>8627700</v>
       </c>
       <c r="K76" s="3">
         <v>7567600</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1484400</v>
+        <v>1492600</v>
       </c>
       <c r="E81" s="3">
-        <v>2188200</v>
+        <v>2199700</v>
       </c>
       <c r="F81" s="3">
-        <v>1206000</v>
+        <v>1212700</v>
       </c>
       <c r="G81" s="3">
-        <v>-427900</v>
+        <v>-430200</v>
       </c>
       <c r="H81" s="3">
-        <v>292800</v>
+        <v>294400</v>
       </c>
       <c r="I81" s="3">
-        <v>774300</v>
+        <v>778600</v>
       </c>
       <c r="J81" s="3">
-        <v>508000</v>
+        <v>510800</v>
       </c>
       <c r="K81" s="3">
         <v>65700</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>614200</v>
+        <v>617600</v>
       </c>
       <c r="E83" s="3">
-        <v>625900</v>
+        <v>626700</v>
       </c>
       <c r="F83" s="3">
-        <v>849100</v>
+        <v>853800</v>
       </c>
       <c r="G83" s="3">
-        <v>1102200</v>
+        <v>1108300</v>
       </c>
       <c r="H83" s="3">
-        <v>1343300</v>
+        <v>1350800</v>
       </c>
       <c r="I83" s="3">
-        <v>1347300</v>
+        <v>1354700</v>
       </c>
       <c r="J83" s="3">
-        <v>1323100</v>
+        <v>1330400</v>
       </c>
       <c r="K83" s="3">
         <v>1266300</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1790400</v>
+        <v>1800300</v>
       </c>
       <c r="E89" s="3">
-        <v>2004300</v>
+        <v>2015300</v>
       </c>
       <c r="F89" s="3">
-        <v>2099700</v>
+        <v>2111300</v>
       </c>
       <c r="G89" s="3">
-        <v>1544200</v>
+        <v>1552700</v>
       </c>
       <c r="H89" s="3">
-        <v>1403400</v>
+        <v>1411200</v>
       </c>
       <c r="I89" s="3">
-        <v>1857900</v>
+        <v>1868200</v>
       </c>
       <c r="J89" s="3">
-        <v>1919300</v>
+        <v>1929900</v>
       </c>
       <c r="K89" s="3">
         <v>1745500</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-794500</v>
+        <v>-798900</v>
       </c>
       <c r="E91" s="3">
-        <v>-803000</v>
+        <v>-807400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1757600</v>
+        <v>-1767400</v>
       </c>
       <c r="G91" s="3">
-        <v>-697100</v>
+        <v>-701000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1089100</v>
+        <v>-1095200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1061200</v>
+        <v>-1067100</v>
       </c>
       <c r="J91" s="3">
-        <v>-894800</v>
+        <v>-899700</v>
       </c>
       <c r="K91" s="3">
         <v>-708100</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>428400</v>
+        <v>430700</v>
       </c>
       <c r="E94" s="3">
-        <v>571500</v>
+        <v>574600</v>
       </c>
       <c r="F94" s="3">
-        <v>-747200</v>
+        <v>-751300</v>
       </c>
       <c r="G94" s="3">
-        <v>-638800</v>
+        <v>-642300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1260100</v>
+        <v>-1267100</v>
       </c>
       <c r="I94" s="3">
-        <v>773200</v>
+        <v>777400</v>
       </c>
       <c r="J94" s="3">
-        <v>-437300</v>
+        <v>-439800</v>
       </c>
       <c r="K94" s="3">
         <v>-3207900</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-405200</v>
+        <v>-407400</v>
       </c>
       <c r="E96" s="3">
-        <v>-334100</v>
+        <v>-336000</v>
       </c>
       <c r="F96" s="3">
-        <v>-626900</v>
+        <v>-630400</v>
       </c>
       <c r="G96" s="3">
-        <v>-313500</v>
+        <v>-315200</v>
       </c>
       <c r="H96" s="3">
-        <v>-308100</v>
+        <v>-309800</v>
       </c>
       <c r="I96" s="3">
-        <v>-288600</v>
+        <v>-290200</v>
       </c>
       <c r="J96" s="3">
-        <v>-234700</v>
+        <v>-236000</v>
       </c>
       <c r="K96" s="3">
         <v>-221800</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2049400</v>
+        <v>-2060700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1646800</v>
+        <v>-1655900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1421700</v>
+        <v>-1429600</v>
       </c>
       <c r="G100" s="3">
-        <v>-707100</v>
+        <v>-711000</v>
       </c>
       <c r="H100" s="3">
-        <v>-729500</v>
+        <v>-733600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2462100</v>
+        <v>-2475700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1446500</v>
+        <v>-1454500</v>
       </c>
       <c r="K100" s="3">
         <v>1713800</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-68900</v>
+        <v>-69300</v>
       </c>
       <c r="E101" s="3">
-        <v>-65700</v>
+        <v>-66100</v>
       </c>
       <c r="F101" s="3">
-        <v>-50400</v>
+        <v>-50700</v>
       </c>
       <c r="G101" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="H101" s="3">
         <v>1000</v>
       </c>
       <c r="I101" s="3">
-        <v>79000</v>
+        <v>79500</v>
       </c>
       <c r="J101" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="K101" s="3">
         <v>-25100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100500</v>
+        <v>101000</v>
       </c>
       <c r="E102" s="3">
-        <v>863200</v>
+        <v>868000</v>
       </c>
       <c r="F102" s="3">
-        <v>-119700</v>
+        <v>-120400</v>
       </c>
       <c r="G102" s="3">
-        <v>177300</v>
+        <v>178200</v>
       </c>
       <c r="H102" s="3">
-        <v>-585300</v>
+        <v>-588500</v>
       </c>
       <c r="I102" s="3">
-        <v>248000</v>
+        <v>249300</v>
       </c>
       <c r="J102" s="3">
-        <v>65000</v>
+        <v>65400</v>
       </c>
       <c r="K102" s="3">
         <v>226300</v>
